--- a/ma_mdi_backtest.xlsx
+++ b/ma_mdi_backtest.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\auto-trade-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E9F2B-8CED-4DAB-805C-0A4F4E6E1E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BA5E63-0FDB-4DB5-A050-4CA55A287525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{873932B9-C5CB-48CD-8110-F88396452B75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{873932B9-C5CB-48CD-8110-F88396452B75}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="ma_mdi" sheetId="2" r:id="rId1"/>
+    <sheet name="ma_adx" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="262">
   <si>
     <t>2019-01</t>
   </si>
@@ -281,6 +282,549 @@
   <si>
     <t>손실</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년 03월: -6.34%</t>
+  </si>
+  <si>
+    <t>2020년 04월: 0.00%</t>
+  </si>
+  <si>
+    <t>2020년 05월: 0.00%</t>
+  </si>
+  <si>
+    <t>2020년 06월: 0.00%</t>
+  </si>
+  <si>
+    <t>2020년 07월: 0.00%</t>
+  </si>
+  <si>
+    <t>2020년 08월: -1.09%</t>
+  </si>
+  <si>
+    <t>2020년 09월: -13.83%</t>
+  </si>
+  <si>
+    <t>2020년 10월: 3.57%</t>
+  </si>
+  <si>
+    <t>2020년 11월: 36.58%</t>
+  </si>
+  <si>
+    <t>2020년 12월: 50.33%</t>
+  </si>
+  <si>
+    <t>2021년 01월: 13.63%</t>
+  </si>
+  <si>
+    <t>2021년 02월: 42.27%</t>
+  </si>
+  <si>
+    <t>2021년 03월: 38.06%</t>
+  </si>
+  <si>
+    <t>2021년 04월: -10.81%</t>
+  </si>
+  <si>
+    <t>2021년 05월: 0.00%</t>
+  </si>
+  <si>
+    <t>2021년 06월: 0.00%</t>
+  </si>
+  <si>
+    <t>2021년 07월: 0.00%</t>
+  </si>
+  <si>
+    <t>2021년 08월: 14.01%</t>
+  </si>
+  <si>
+    <t>2021년 09월: 0.00%</t>
+  </si>
+  <si>
+    <t>2021년 10월: -6.39%</t>
+  </si>
+  <si>
+    <t>2021년 11월: -1.03%</t>
+  </si>
+  <si>
+    <t>2021년 12월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 01월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 02월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 03월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 04월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 05월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 06월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 07월: -1.54%</t>
+  </si>
+  <si>
+    <t>2022년 08월: -0.04%</t>
+  </si>
+  <si>
+    <t>2022년 09월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 10월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 11월: 0.00%</t>
+  </si>
+  <si>
+    <t>2022년 12월: 0.00%</t>
+  </si>
+  <si>
+    <t>2023년 01월: 10.64%</t>
+  </si>
+  <si>
+    <t>2023년 02월: 6.74%</t>
+  </si>
+  <si>
+    <t>2023년 03월: 21.00%</t>
+  </si>
+  <si>
+    <t>2023년 04월: 4.29%</t>
+  </si>
+  <si>
+    <t>2023년 05월: -7.13%</t>
+  </si>
+  <si>
+    <t>2023년 06월: 0.00%</t>
+  </si>
+  <si>
+    <t>2023년 07월: 0.00%</t>
+  </si>
+  <si>
+    <t>2023년 08월: 0.00%</t>
+  </si>
+  <si>
+    <t>2023년 09월: 0.00%</t>
+  </si>
+  <si>
+    <t>2023년 10월: 1.88%</t>
+  </si>
+  <si>
+    <t>2023년 11월: 7.56%</t>
+  </si>
+  <si>
+    <t>2023년 12월: 12.77%</t>
+  </si>
+  <si>
+    <t>2024년 01월: 0.37%</t>
+  </si>
+  <si>
+    <t>2024년 02월: -2.02%</t>
+  </si>
+  <si>
+    <t>2024년 03월: 17.53%</t>
+  </si>
+  <si>
+    <t>2024년 04월: -6.09%</t>
+  </si>
+  <si>
+    <t>2024년 05월: 0.00%</t>
+  </si>
+  <si>
+    <t>2024년 06월: 0.00%</t>
+  </si>
+  <si>
+    <t>2024년 07월: 0.00%</t>
+  </si>
+  <si>
+    <t>2024년 08월: 0.00%</t>
+  </si>
+  <si>
+    <t>2024년 09월: 0.00%</t>
+  </si>
+  <si>
+    <t>2024년 10월: 0.00%</t>
+  </si>
+  <si>
+    <t>2024년 11월: 4.31%</t>
+  </si>
+  <si>
+    <t>2024년 12월: 6.83%</t>
+  </si>
+  <si>
+    <t>--- 백테스팅 요약 ---</t>
+  </si>
+  <si>
+    <t>초기 투자 금액: 1,000,000 KRW</t>
+  </si>
+  <si>
+    <t>최종 포트폴리오 가치: 7,265,921 KRW</t>
+  </si>
+  <si>
+    <t>총 누적 수익률: 626.59%</t>
+  </si>
+  <si>
+    <t>C:\Users\user\Desktop\auto-trade-bot\backtest_bot.py:228: FutureWarning: 'M' is deprecated and will be removed in a future version, please use 'ME' instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  monthly_portfolio_values = portfolio_df['value'].resample('M').last()</t>
+  </si>
+  <si>
+    <t>--- 월별 누적 수익률 (초기자산 대비) ---</t>
+  </si>
+  <si>
+    <t>2020년 04월: -6.34%</t>
+  </si>
+  <si>
+    <t>2020년 05월: -6.34%</t>
+  </si>
+  <si>
+    <t>2020년 06월: -6.34%</t>
+  </si>
+  <si>
+    <t>2020년 07월: -6.34%</t>
+  </si>
+  <si>
+    <t>2020년 08월: -7.36%</t>
+  </si>
+  <si>
+    <t>2020년 09월: -20.18%</t>
+  </si>
+  <si>
+    <t>2020년 10월: -17.33%</t>
+  </si>
+  <si>
+    <t>2020년 11월: 12.92%</t>
+  </si>
+  <si>
+    <t>2020년 12월: 69.74%</t>
+  </si>
+  <si>
+    <t>2021년 01월: 92.87%</t>
+  </si>
+  <si>
+    <t>2021년 02월: 174.40%</t>
+  </si>
+  <si>
+    <t>2021년 03월: 278.84%</t>
+  </si>
+  <si>
+    <t>2021년 04월: 237.88%</t>
+  </si>
+  <si>
+    <t>2021년 05월: 237.88%</t>
+  </si>
+  <si>
+    <t>2021년 06월: 237.88%</t>
+  </si>
+  <si>
+    <t>2021년 07월: 237.88%</t>
+  </si>
+  <si>
+    <t>2021년 08월: 285.24%</t>
+  </si>
+  <si>
+    <t>2021년 09월: 285.24%</t>
+  </si>
+  <si>
+    <t>2021년 10월: 260.61%</t>
+  </si>
+  <si>
+    <t>2021년 11월: 256.89%</t>
+  </si>
+  <si>
+    <t>2021년 12월: 256.89%</t>
+  </si>
+  <si>
+    <t>2022년 01월: 256.89%</t>
+  </si>
+  <si>
+    <t>2022년 02월: 256.89%</t>
+  </si>
+  <si>
+    <t>2022년 03월: 256.89%</t>
+  </si>
+  <si>
+    <t>2022년 04월: 256.89%</t>
+  </si>
+  <si>
+    <t>2022년 05월: 256.89%</t>
+  </si>
+  <si>
+    <t>2022년 06월: 256.89%</t>
+  </si>
+  <si>
+    <t>2022년 07월: 251.38%</t>
+  </si>
+  <si>
+    <t>2022년 08월: 251.24%</t>
+  </si>
+  <si>
+    <t>2022년 09월: 251.24%</t>
+  </si>
+  <si>
+    <t>2022년 10월: 251.24%</t>
+  </si>
+  <si>
+    <t>2022년 11월: 251.24%</t>
+  </si>
+  <si>
+    <t>2022년 12월: 251.24%</t>
+  </si>
+  <si>
+    <t>2023년 01월: 288.63%</t>
+  </si>
+  <si>
+    <t>2023년 02월: 314.84%</t>
+  </si>
+  <si>
+    <t>2023년 03월: 401.96%</t>
+  </si>
+  <si>
+    <t>2023년 04월: 423.48%</t>
+  </si>
+  <si>
+    <t>2023년 05월: 386.13%</t>
+  </si>
+  <si>
+    <t>2023년 06월: 386.13%</t>
+  </si>
+  <si>
+    <t>2023년 07월: 386.13%</t>
+  </si>
+  <si>
+    <t>2023년 08월: 386.13%</t>
+  </si>
+  <si>
+    <t>2023년 09월: 386.13%</t>
+  </si>
+  <si>
+    <t>2023년 10월: 395.25%</t>
+  </si>
+  <si>
+    <t>2023년 11월: 432.69%</t>
+  </si>
+  <si>
+    <t>2023년 12월: 500.73%</t>
+  </si>
+  <si>
+    <t>2024년 01월: 502.93%</t>
+  </si>
+  <si>
+    <t>2024년 02월: 490.77%</t>
+  </si>
+  <si>
+    <t>2024년 03월: 594.33%</t>
+  </si>
+  <si>
+    <t>2024년 04월: 552.04%</t>
+  </si>
+  <si>
+    <t>2024년 05월: 552.04%</t>
+  </si>
+  <si>
+    <t>2024년 06월: 552.04%</t>
+  </si>
+  <si>
+    <t>2024년 07월: 552.04%</t>
+  </si>
+  <si>
+    <t>2024년 08월: 552.04%</t>
+  </si>
+  <si>
+    <t>2024년 09월: 552.04%</t>
+  </si>
+  <si>
+    <t>2024년 10월: 552.04%</t>
+  </si>
+  <si>
+    <t>2024년 11월: 580.15%</t>
+  </si>
+  <si>
+    <t>2024년 12월: 626.59%</t>
+  </si>
+  <si>
+    <t>월평균 수익률: 4.07%</t>
+  </si>
+  <si>
+    <t>2020년 03월</t>
+  </si>
+  <si>
+    <t>2020년 04월</t>
+  </si>
+  <si>
+    <t>2020년 05월</t>
+  </si>
+  <si>
+    <t>2020년 06월</t>
+  </si>
+  <si>
+    <t>2020년 07월</t>
+  </si>
+  <si>
+    <t>2020년 08월</t>
+  </si>
+  <si>
+    <t>2020년 09월</t>
+  </si>
+  <si>
+    <t>2020년 10월</t>
+  </si>
+  <si>
+    <t>2020년 11월</t>
+  </si>
+  <si>
+    <t>2020년 12월</t>
+  </si>
+  <si>
+    <t>2021년 01월</t>
+  </si>
+  <si>
+    <t>2021년 02월</t>
+  </si>
+  <si>
+    <t>2021년 03월</t>
+  </si>
+  <si>
+    <t>2021년 04월</t>
+  </si>
+  <si>
+    <t>2021년 05월</t>
+  </si>
+  <si>
+    <t>2021년 06월</t>
+  </si>
+  <si>
+    <t>2021년 07월</t>
+  </si>
+  <si>
+    <t>2021년 08월</t>
+  </si>
+  <si>
+    <t>2021년 09월</t>
+  </si>
+  <si>
+    <t>2021년 10월</t>
+  </si>
+  <si>
+    <t>2021년 11월</t>
+  </si>
+  <si>
+    <t>2021년 12월</t>
+  </si>
+  <si>
+    <t>2022년 01월</t>
+  </si>
+  <si>
+    <t>2022년 02월</t>
+  </si>
+  <si>
+    <t>2022년 03월</t>
+  </si>
+  <si>
+    <t>2022년 04월</t>
+  </si>
+  <si>
+    <t>2022년 05월</t>
+  </si>
+  <si>
+    <t>2022년 06월</t>
+  </si>
+  <si>
+    <t>2022년 07월</t>
+  </si>
+  <si>
+    <t>2022년 08월</t>
+  </si>
+  <si>
+    <t>2022년 09월</t>
+  </si>
+  <si>
+    <t>2022년 10월</t>
+  </si>
+  <si>
+    <t>2022년 11월</t>
+  </si>
+  <si>
+    <t>2022년 12월</t>
+  </si>
+  <si>
+    <t>2023년 01월</t>
+  </si>
+  <si>
+    <t>2023년 02월</t>
+  </si>
+  <si>
+    <t>2023년 03월</t>
+  </si>
+  <si>
+    <t>2023년 04월</t>
+  </si>
+  <si>
+    <t>2023년 05월</t>
+  </si>
+  <si>
+    <t>2023년 06월</t>
+  </si>
+  <si>
+    <t>2023년 07월</t>
+  </si>
+  <si>
+    <t>2023년 08월</t>
+  </si>
+  <si>
+    <t>2023년 09월</t>
+  </si>
+  <si>
+    <t>2023년 10월</t>
+  </si>
+  <si>
+    <t>2023년 11월</t>
+  </si>
+  <si>
+    <t>2023년 12월</t>
+  </si>
+  <si>
+    <t>2024년 01월</t>
+  </si>
+  <si>
+    <t>2024년 02월</t>
+  </si>
+  <si>
+    <t>2024년 03월</t>
+  </si>
+  <si>
+    <t>2024년 04월</t>
+  </si>
+  <si>
+    <t>2024년 05월</t>
+  </si>
+  <si>
+    <t>2024년 06월</t>
+  </si>
+  <si>
+    <t>2024년 07월</t>
+  </si>
+  <si>
+    <t>2024년 08월</t>
+  </si>
+  <si>
+    <t>2024년 09월</t>
+  </si>
+  <si>
+    <t>2024년 10월</t>
+  </si>
+  <si>
+    <t>2024년 11월</t>
+  </si>
+  <si>
+    <t>2024년 12월</t>
   </si>
 </sst>
 </file>
@@ -304,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +914,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +1013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -476,7 +1029,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>ma_mdi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -497,7 +1050,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$78</c:f>
+              <c:f>ma_mdi!$A$2:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
@@ -736,7 +1289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$78</c:f>
+              <c:f>ma_mdi!$C$2:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="77"/>
@@ -925,7 +1478,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>ma_mdi!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -946,7 +1499,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$78</c:f>
+              <c:f>ma_mdi!$A$2:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
@@ -1185,7 +1738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$78</c:f>
+              <c:f>ma_mdi!$D$2:$D$78</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="77"/>
@@ -1366,6 +1919,2310 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4791-4A05-AB7B-3AFE4194EE79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="30"/>
+        <c:axId val="2007362208"/>
+        <c:axId val="2007362688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2007362208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2007362688"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="20"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2007362688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2007362208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>MA_adx_Backtest(2020~2024)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ma_adx!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>수익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ma_adx!$D$2:$D$59</c:f>
+              <c:strCache>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>2020년 03월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020년 04월</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020년 05월</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020년 06월</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020년 07월</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020년 08월</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020년 09월</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020년 10월</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020년 11월</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020년 12월</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021년 01월</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021년 02월</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021년 03월</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021년 04월</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021년 05월</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021년 06월</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021년 07월</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021년 08월</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021년 09월</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021년 10월</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021년 11월</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021년 12월</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022년 01월</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022년 02월</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022년 03월</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022년 04월</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022년 05월</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022년 06월</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022년 07월</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022년 08월</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022년 09월</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022년 10월</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022년 11월</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022년 12월</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023년 01월</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023년 02월</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2023년 03월</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023년 04월</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023년 05월</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023년 06월</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023년 07월</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2023년 08월</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2023년 09월</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2023년 10월</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2023년 11월</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2023년 12월</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2024년 01월</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2024년 02월</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2024년 03월</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2024년 04월</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2024년 05월</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2024년 06월</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2024년 07월</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2024년 08월</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2024년 09월</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2024년 10월</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2024년 11월</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2024년 12월</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ma_adx!$F$2:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5699999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36579999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38060000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.12770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.3099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.83E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ED0-4365-8908-4C701094F2F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ma_adx!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>손실</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ma_adx!$D$2:$D$59</c:f>
+              <c:strCache>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>2020년 03월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020년 04월</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020년 05월</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020년 06월</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020년 07월</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020년 08월</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020년 09월</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020년 10월</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020년 11월</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020년 12월</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021년 01월</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021년 02월</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021년 03월</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021년 04월</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021년 05월</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021년 06월</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021년 07월</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021년 08월</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021년 09월</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021년 10월</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021년 11월</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021년 12월</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022년 01월</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022년 02월</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022년 03월</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022년 04월</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022년 05월</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022년 06월</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022년 07월</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022년 08월</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022년 09월</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022년 10월</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022년 11월</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022년 12월</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023년 01월</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023년 02월</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2023년 03월</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023년 04월</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023년 05월</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023년 06월</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023년 07월</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2023년 08월</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2023년 09월</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2023년 10월</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2023년 11월</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2023년 12월</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2024년 01월</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2024년 02월</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2024년 03월</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2024년 04월</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2024년 05월</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2024년 06월</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2024년 07월</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2024년 08월</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2024년 09월</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2024년 10월</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2024년 11월</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2024년 12월</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ma_adx!$G$2:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>-6.3399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.3899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.1300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.0899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3ED0-4365-8908-4C701094F2F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="30"/>
+        <c:axId val="2007362208"/>
+        <c:axId val="2007362688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2007362208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2007362688"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="20"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2007362688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2007362208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>MA_MDI_Backtest(2019~2025)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ma_mdi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>수익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ma_mdi!$A$2:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2024-03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2024-04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2024-05</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2024-06</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2024-07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2024-08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2024-09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2024-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2024-11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2024-12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2025-01</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2025-02</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2025-03</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2025-04</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2025-05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ma_mdi!$C$2:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69739999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34369999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1091</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1199999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.99E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6799999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.38060000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.10640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.7500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.25609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.2500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.12770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.31640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.17530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.32939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.0800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.7300000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E41-451A-A0C1-8748BAECEF3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ma_mdi!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>손실</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ma_mdi!$A$2:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>2019-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2024-03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2024-04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2024-05</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2024-06</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2024-07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2024-08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2024-09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2024-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2024-11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2024-12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2025-01</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2025-02</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2025-03</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2025-04</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2025-05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ma_mdi!$D$2:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>-8.8599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.5000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.10050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.1899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.8900000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.11650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9.820000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.0100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.0400000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.4000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-6.59E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-4.0999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-5.1699999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-4.5400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.5400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.0899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.7599999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E41-451A-A0C1-8748BAECEF3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1640,7 +4497,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2184,6 +6127,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A767A26-F4A6-4CAB-9E21-49783FD9E7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>248995</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BF9777-A271-484B-9EAF-AA6D59182A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2483,8 +6507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313CF7C7-8336-43E8-A530-54D9CAC90EAA}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3623,4 +7647,1476 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2EEC7C-4F39-48BB-8CAF-3D24B2464AC1}">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-6.3399999999999998E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>MAX(E2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>MIN(E2,0)</f>
+        <v>-6.3399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F59" si="0">MAX(E3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G59" si="1">MIN(E3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.09E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.13830000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.13830000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.36579999999999996</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36579999999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.1363</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1363</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.38060000000000005</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38060000000000005</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.1081</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.1081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.1401</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1401</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-6.3899999999999998E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.3899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1.03E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.03E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-1.54E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.54E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.10640000000000001</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10640000000000001</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-7.1300000000000002E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.8799999999999997E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8799999999999997E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-2.0199999999999999E-2</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-6.0899999999999996E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6.83E-2</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>6.83E-2</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>